--- a/data/Fed_Meetings.xlsx
+++ b/data/Fed_Meetings.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timlammert/Desktop/Uni/Economics/Masterarbeit/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timlammert/Desktop/masters-thesis/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1148E4-16BD-7E42-B71A-F0C334EA81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECFF88D-55C8-5A4F-A165-A5891AC368E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3920" windowWidth="20480" windowHeight="14080" xr2:uid="{D23D957F-5156-CA4F-B777-6FD1AC0E0FAE}"/>
+    <workbookView xWindow="28800" yWindow="4420" windowWidth="20480" windowHeight="13580" activeTab="1" xr2:uid="{D23D957F-5156-CA4F-B777-6FD1AC0E0FAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Source" sheetId="2" r:id="rId1"/>
+    <sheet name="Dates" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Fed Meeting Dates (Last Date)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <t>United States. Federal Open Market Committee. </t>
@@ -65,10 +63,10 @@
     </r>
   </si>
   <si>
-    <t>Release</t>
+    <t>Later Releases</t>
   </si>
   <si>
-    <t>Fed Telephone Conferences/Unscheduled Meetings</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -97,12 +95,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -455,749 +459,791 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884351C0-379B-EE48-9ED9-C80E9D0DAA2A}">
-  <dimension ref="A1:D138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D6D633-3183-DF4F-A1AF-259CF7433EBE}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884351C0-379B-EE48-9ED9-C80E9D0DAA2A}">
+  <dimension ref="A1:D148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>39477</v>
+      <c r="A2" s="3">
+        <v>39468</v>
       </c>
       <c r="B2" s="1">
-        <v>39468</v>
-      </c>
-      <c r="C2" s="1">
-        <f>+B2+1</f>
+        <f>+A2+1</f>
         <v>39469</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>39525</v>
-      </c>
-      <c r="B3" s="1">
+        <v>39477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>39517</v>
       </c>
-      <c r="C3" s="1">
-        <f>+B3+1</f>
+      <c r="B4" s="1">
+        <f>+A4+1</f>
         <v>39518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>39568</v>
-      </c>
-      <c r="B4" s="1">
-        <v>39454</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>39624</v>
-      </c>
-      <c r="B5" s="1">
-        <v>40307</v>
-      </c>
+        <v>39525</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>39665</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43893</v>
+        <v>39568</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>39707</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43905</v>
+        <v>39624</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>39750</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43909</v>
+        <v>39665</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>39798</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43913</v>
+        <v>39707</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>39842</v>
+      <c r="A10" s="3">
+        <v>39728</v>
       </c>
       <c r="B10" s="1">
-        <v>43921</v>
+        <v>39729</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>39890</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44070</v>
+        <v>39750</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>39932</v>
+        <v>39798</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>39988</v>
+        <v>39842</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>40037</v>
+        <v>39890</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>40079</v>
+        <v>39932</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>40121</v>
+        <v>39988</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>40163</v>
+        <v>40037</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>40205</v>
+        <v>40079</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>40253</v>
+        <v>40121</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>40296</v>
+        <v>40163</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>40353</v>
+        <v>40205</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>40400</v>
+        <v>40253</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>40442</v>
+        <v>40296</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>40485</v>
+      <c r="A24" s="3">
+        <v>40307</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>40526</v>
+        <v>40353</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>40569</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>40617</v>
+        <v>40442</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>40660</v>
+        <v>40485</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>40716</v>
+        <v>40526</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>40764</v>
+        <v>40569</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>40807</v>
+        <v>40617</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>40849</v>
+        <v>40660</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>40890</v>
+        <v>40716</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>40933</v>
+        <v>40764</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>40981</v>
+        <v>40807</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>41024</v>
+        <v>40849</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>41080</v>
+        <v>40890</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>41122</v>
+        <v>40933</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>41165</v>
+        <v>40981</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>41206</v>
+        <v>41024</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>41255</v>
+        <v>41080</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>41304</v>
+        <v>41122</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41353</v>
+        <v>41165</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>41395</v>
+        <v>41206</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>41444</v>
+        <v>41255</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>41486</v>
+        <v>41304</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>41536</v>
+        <v>41353</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>41563</v>
+        <v>41395</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>41577</v>
+        <v>41444</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>41626</v>
+        <v>41486</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>41668</v>
+        <v>41536</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>41717</v>
+        <v>41563</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>41759</v>
+        <v>41577</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>41808</v>
+        <v>41626</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>41850</v>
+        <v>41668</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>41899</v>
+        <v>41717</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>41941</v>
+        <v>41759</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>41990</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>42032</v>
+        <v>41850</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>42081</v>
+        <v>41899</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>42123</v>
+        <v>41941</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>42172</v>
+      <c r="A62" s="1">
+        <v>41990</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>42214</v>
+      <c r="A63" s="1">
+        <v>42032</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>42264</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>42305</v>
+        <v>42123</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>42354</v>
+        <v>42172</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>42396</v>
+        <v>42214</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>42445</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>42487</v>
+        <v>42305</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>42536</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>42578</v>
+        <v>42396</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>42634</v>
+        <v>42445</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>42676</v>
+        <v>42487</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>42718</v>
+        <v>42536</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>42767</v>
+        <v>42578</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>42809</v>
+        <v>42634</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>42858</v>
+        <v>42676</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>42900</v>
+        <v>42718</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>42942</v>
+        <v>42767</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>42998</v>
+        <v>42809</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43040</v>
+        <v>42858</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43082</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43131</v>
+        <v>42942</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43179</v>
+        <v>42998</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43222</v>
+        <v>43040</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43264</v>
+        <v>43082</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43313</v>
+        <v>43131</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43369</v>
+        <v>43179</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43412</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43453</v>
+        <v>43264</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43495</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43544</v>
+        <v>43369</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43586</v>
+        <v>43412</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43635</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43677</v>
+        <v>43495</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>43726</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>43768</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>43810</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>43859</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>43950</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>43992</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>44041</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>44140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>44181</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>44223</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>44314</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>44363</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>44405</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>44461</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44503</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44545</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44587</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44636</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44685</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44727</v>
+        <v>44272</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44769</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44825</v>
+        <v>44363</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44867</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44909</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>44958</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>45007</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>45049</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>45091</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>45133</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>45189</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>45231</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>45273</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>45322</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>45371</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>45413</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>45455</v>
+        <v>45007</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>45504</v>
+        <v>45049</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>45553</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>45603</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>45644</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>45273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45371</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
         <v>45686</v>
       </c>
     </row>
